--- a/500all/speech_level/speeches_CHRG-114hhrg20724.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20724.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order, and without objection, the Chair is authorized to declare a recess of the Committee at any time. Welcome to all of you here. The subject of today's hearing is the Senate-passed version of the Justice Against Sponsors of Terrorism Act, or JASTA for short. Earlier this year, this legislation was unanimously reported out of the Senate Judiciary Committee, and in May, passed the Senate by a voice vote.    However, despite the broad bipartisan support for this legislation in the Senate, the State Department has raised concerns with JASTA, and we have called this hearing to examine those concerns. JASTA essentially makes two changes to Federal law.    First, it amends the Foreign Service Immunities Act to add the existing exceptions to the foreign sovereign immunity and exception for terrorist attacks that cause physical injury or death in the United States. Under current law, there appears to be some confusion or disagreement in the courts as the whether the Foreign Sovereign Immunity Acts tort exception waives the immunity of foreign governments that provide material support to foreign terrorist organizations that cause damage in the United States.    JASTA makes clear that a foreign government that aids and abets a foreign terrorist organization in carrying out a terrorist attack on U.S. soil will not be immune from the jurisdiction of our court.    Second, JASTA amends the Antiterrorism Act to clarify that those who aid, abet, or conspire with a foreign terrorist organization are subject to civil liability. There is currently a split in the Federal Courts of Appeal on the question of whether the Antiterrorism Act permits lawsuits based on aiding and abetting terrorists.    JASTA provides that if a person aids and abets a State Department-designated foreign terrorist organization by knowingly providing that organization with substantial assistance, that person will be subjected to civil liability.    By making these two changes to existing law, JASTA seeks to ensure that those, including foreign governments, who sponsor terrorist attacks on U.S. soil are held fully accountable for their actions. In addition, JASTA attempts to enhance the effectiveness of U.S. efforts at combatting terrorism and combatting terrorist financing by making those who provide financial support to foreign terrorist organizations liable for their conduct.    JASTA would appear to be consistent with existing U.S. principles of foreign sovereign immunity, which permits lawsuits against foreign governments in U.S. court cases in the following instances--in which a foreign government has waived its immunity, that are based on a commercial activity carried out in the United States or which causes a direct effect in the United States, or in which the rights and property taken in violation of international laws are at issue, or in which money damages are sought against a foreign state for personal injury or death, or damage or loss of property occurring in the United States, and finally that are brought against designated state sponsors of terrorism.    Despite the numerous, longstanding exceptions to foreign sovereign immunity already provided under U.S. law, the State Department and others have expressed concerns with JASTA and its potential ramifications on U.S. foreign policy. Out of respect for those concerns, we have invited the State Department here to testify before the Committee, and we have also invited a second panel of witnesses to appear and provide additional perspective on the issues the State Department has raised with JASTA.    I look forward to the witnesses' testimony on this important subject, and I would now recognize the Ranking Member of the Subcommittee, Mr. Cohen, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair. I welcome today's hearing on Senate Bill 2040, the ``Justice Against Sponsors of Terrorism Act.'' The specific text was passed by the Senate, unanimous consent, May 17, 2016, but it did not receive a hearing or other formal vetting, so it is good that in the House we have a hearing, which is somewhat unusual for us.    S. 2040 would amend the Foreign Sovereign Immunities Act of 1976 to allow suits against foreign states for physical entry resulting from the act of international terrorism in the United States, and a tortious act on the part of the foreign state or its official employee or agent acting within the scope of his or her employment, wherever that act occurs.    The legislation also amends the Antiterrorism Act to explicitly provide for aiding and abetting liability. Finally, the bill contains a state provision allowing court to stay a case against a foreign state defender for up to 180 days; the possibility of an extension to go to a full year to allow the State Department to negotiate in good faith with the foreign state defendant to resolve the claims issued.    We have two panels of distinguished witnesses before us today, two folks from, I believe, both the diplomatic corps and the Mr. Mukasey, an outstanding former United States attorney, and then a buddy of Bob Brady's, which is almost equally in dignity to being a great former U.S. attorney.    And I hope that we can use this opportunity to learn about the bill to understand the detail of the arguments in its favor and the other potential conflicts. This is a difficult bill. You want to get justice for the victims of 9/11, but you also want to protect our national security.    The legislation arises from the litigation against various defendants concerning 9/11. Legislation is drafted in general terms. We consider it in that light as both the supporters and opponents seem to agree.    I am for access to justice and always have been, and it is my inclination to support such measures, and it is also my inclination to support, in any way I can, the victims of the dastardly deeds of 9/11. And it is particularly strong in that case, because that is something that we all experienced and should not get out of our psyches and our minds.    The bill supporters argue that it is needed to update laws to address cases where foreign states facilitate terrorist strikes in the United States through financing and other kinds of material support for foreign terrorist organizations like Al-Qaeda. They also assert the bill would deter such conduct in the future, thereby enhancing counterterrorism efforts.    They further contend that the Senate-passed language is narrow in scope, and the concerns about any reciprocal effects from enacting this legislation are exaggerated. The Obama administration, however, continues to raise concerns, even in the admitted form that we consider today, and I take that seriously as well.    In addition to the reciprocity concern, the Administration contends enactment of Senate Bill 2040 could undermine counterterrorism efforts, raise serious foreign policy concerns, and lead to a reduction of foreign investment in the United States. Some opponents further argue that enacting this bill could subject U.S. allies to liability in the U.S. courts, including countries like Britain and Israel.    Both sides have come forth with seemingly strong arguments, and while I appreciate the fact the Senate passed this language by voice vote, I think it is worth our while to have a discussion about the merits of S. 2040, and I thank the Chairman for having that hearing. I thank our witnesses for being here. I am looking forward to the testimony.</t>
   </si>
   <si>
@@ -73,36 +67,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Well, thank you, Mr. Chairman, and I want to begin by thanking Ambassador Patterson and Mr. Egan for appearing before the Committee today on behalf of the State Department. I know that the department has some foreign policy-related concerns with this legislation, and we wanted through this hearing to give the department the opportunity to express those concerns.    The Justice Against Sponsors of Terrorism Act has been introduced over several successive congresses, and has twice unanimously passed the Senate. Over the years that this legislation has been considered, we have worked with its sponsors and the Senate Judiciary Committee to make the bill's language more precise in order to ensure that any unintended consequences are kept to a minimum.    In particular, I have worked to make sure that JASTA's extension of secondary liability under the Antiterrorism Act closely tracks the common-law standard for aiding and abetting liability and is limited to State Department-designated foreign terrorist organizations.    Aiding and abetting liability should only attach under the ATA to persons who have actual knowledge that they are directly providing substantial assistance to a designated foreign terrorist organization, in connection with the organization's commission of an act of international terrorism. JASTA, as revised in the Senate Judiciary Committee, ensures that aiding and abetting liability is limited in this manner.    Beyond the Antiterrorism Act, JASTA amends the Foreign Sovereign Immunities Act in order to waive the sovereign immunity of any foreign government that sponsors an act of international terrorism that both causes physical injury in the United States, and occurs on U.S. soil.    JASTA makes this change because under current law, a foreign Nation can provide financing and other substantial assistance to a terrorist organization that attacks our country and escape liability so long as all of the material support is provided overseas.    For example, under current law, if a foreign state or any official or employee of that foreign state sets off a bomb on U.S. soil, injuring our citizens, the country would be liable under the Foreign Sovereign Immunities Act's tort exception. However, if we change the fact pattern slightly, so that rather than directly setting of the bomb, the foreign state instead gives a foreign terrorist organization the money it needs to attack the United States, the foreign state will not be subject to liability in U.S. courts.    This is a troubling loophole in our antiterrorism laws. When Congress enacted the Foreign Sovereign Immunities Act in 1976, it put in place a broad set of exceptions to sovereign immunity, including an exception for tort claims involving injuries occurring in the United States.    However, the courts have not consistently interpreted those exceptions in such a manner that they cover the sponsoring of a terrorist attack on U.S. soil. JASTA attempts to address this inconsistency with a concrete rule.    I am interested to hear, however, from the State Department as to why JASTA's amendments to the Foreign Sovereign Immunities Act present a threat to our relationships with countries that are important partners in combatting terrorism.    Certainly, we do not want to make it more difficult for the State Department, the Department of Defense, and other agencies to combat global terrorism, but at the same time, we do not want to have laws in place that make it impossible for U.S. citizens who are victims of terrorist attacks on U.S. soil to seek judicial redress against those who seek to harm us. I look forward to our witnesses' testimony on this important subject, and yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman, and I would now yield to the Ranking Member of the Committee, Mr. Conyers from Michigan.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank, Mr. Chairman. Members of the Committee, without question, the victims of the September 11 terrorist attack deserve our sympathy and our help, and this Committee has worked to enact interlaw measures that attempt to provide some relief to these victims. As we consider S. 2040, the Justice Against Sponsors of Terrorism Act, we must keep in mind that this legislation is written in general terms, and we should consider its impact beyond one case, however compelling that case may be.    Among other things, S. 2040 amends the Foreign Sovereign Immunities Act to create a new exception to the Act's general grant of foreign sovereign immunity. The exception would apply to claims arising from physical injury as a result of an act of international terrorism in the United States, as well as to a tortious act of a foreign state or its official, employee, or agent acting within his or her official capacity, regardless of where the tortious act took place.    The House has not previously held a hearing on this proposal, and neither chamber has held a hearing on this particular version of the legislation, so I approach this measure with an open mind. That being said, there are three overarching points that should inform our discussion today.    To begin with, the purpose of sovereign immunity is to ensure that disputes among Nations are ultimately resolved through diplomatic efforts rather than litigation. Customary international law provided absolute immunity for states in the courts of other states.    Nevertheless, in the last century, many countries, including the United States, came to realize that it was unfair to provide immunity in cases where countries were engaged in non-sovereign activities, such as ordinary commerce.    For this reason, countries began recognizing certain limited exceptions to sovereign immunity. The Foreign Sovereign Immunities Act codified the customary law of sovereign immunity recognized by our country at the time of the Act's enactment in 1976, including certain exceptions to sovereign immunity.    The Act also removed the need for, and the ability of the State Department, to make case-by-case determinations of whether a foreign state defendant was entitled to sovereign immunity and left such determination to courts as a matter of statutory interpretation, which in theory depoliticized such determinations.    In light of this history, we should consider what impact changing the scope of exceptions to sovereign immunity may have on United States interests. The Administration, some allied Nations, and others have raised the concern that the enactment of S. 2040 may lead to retaliation by other countries against the United States, given the breadth of our interests and expansive reach of our global activities.    For example, they contend a country like Afghanistan or Pakistan, under a future hostile regime, may enact legislation abrogating sovereign immunity to allow suits against the United States, against United States officials, or even our military personnel in response to drone strikes, or other activities in their countries.    The bill's supporters, on the other hand, argue that the already-existing exceptions to sovereign immunity, including the current state-sponsored terrorism exception, and the prior understanding of the tort exception, that this bill purports to restore, have not resulted in any meaningful retaliation against the United States.    So, finally, we should consider the impact this measure may have on our Nation's counterterrorism efforts. The bill's proponents argue that it will enhance such efforts by raising the prospect of depriving terrorists of resources, and deterring future terrorism financing.    On the other hand, others say that it will hamper cooperation from other countries because they may become more reluctant to share sensitive intelligence in light of the greater risks that such information may be revealed in litigation.    While this bill and the underlying litigation that spawned it arose from an emotionally searing event, I hope that we can be both respectful and clear-eyed as we consider the arguments to be presented by our distinguished witnesses. And so accordingly, I look forward to an engaging debate, and I thank our witnesses for being with us to share their thoughts on these important issues. I thank the Chair.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman, and without objection, other Members' opening statements will be made a part of the record.    So, let me now introduce our witnesses. We have two very distinguished panels today. I will begin by the first panel.    Our first witness is Ambassador Anne Patterson, the Assistant Secretary of State for Near East Affairs. Ambassador Patterson has served as the U.S. ambassador to four countries, and in 2008 was promoted to the rank of career ambassador, the highest rank in foreign service. She has served as Assistant Secretary of State for International Narcotics and Law Enforcement Affairs, and has served as Deputy Permanent Representative at the U.S. mission to the United Nations.    Our second witness is Brian Egan, the legal adviser to the State Department. Prior to being appointed as legal adviser, Mr. Egan served as legal adviser to the National Security Council, Deputy Assistant to the President, and Deputy Counsel to the President, and as Assistant General Counsel for Enforcement Intelligence at the Department of the Treasury.    Each of the witnesses' written statements will be entered into the record in its entirety, and I would ask that each witness summarize his or her testimony in 5 minutes or less. To help you stay within the time, there is a timing light in front of you. The light will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    So, before I recognize the witnesses, it is the tradition of the Subcommittee that they be sworn. So, if you would please stand and be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth, so help you God? You may be seated.    Let the record reflect that the witnesses answered in the affirmative, and I welcome both of you. And I now recognize our first witness, Ambassador Patterson; and Ambassador, if you might turn that microphone on before speaking.</t>
   </si>
   <si>
-    <t>Patterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Patterson. Okay, thank you, Chairman Franks, Ranking Member Cohen, Members of the Subcommittee. Thank you for inviting us to appear before you today to discuss the Justice Against Sponsors of Terrorism Act. I welcome the opportunity to testify with my colleague, Brian Egan, the Department of State's legal adviser.    I understand the motivation for this legislation, and all of us in the Administration deeply sympathize with the victims of terror and their families. I can personally attest that unprecedented resources have been dedicated to our national security to ensure that no other Americans will suffer the same fate as the victims of the September 11th attacks.    From the successful efforts against Al-Qaeda leadership in the Pakistan-Afghanistan border, to the vast improvement in our intelligence about terrorist leaders, and to our successes in rooting out sources of funding for terrorism, we have worked every day to protect the homeland. We all know that the families of the 9/11 victims have suffered grievously, and nothing will ever be sufficient to alleviate their suffering. However, the 9/11 attacks were, and have continued to be the subject of intense and exhaustive investigation by U.S. government agencies and commissions.    While these efforts will continue, I am here today to explain why the Administration believes that JASTA is not the right path forward. Most importantly, the passage of JASTA could undermine our critical fight against terrorism, and particularly against ISIL, by limiting our flexibility in operating overseas, and thereby threaten our national security interests.    JASTA represents a sea change in longstanding principles, and would allow private litigations against foreign governments in U.S. courts, based on allegations that such countries' actions abroad made them responsible for terrorism-related injuries on U.S. soil. This legislation would allow suits against countries that have neither been designated by the executive branch as state sponsors of terrorism, nor taken direct action in the United States to carry out an attack here.    JASTA would hinder our ability to protect our national security interests by damaging relationships with countries that are important, critical partners in combatting terrorism at a crucial time when we are trying to build coalitions, not create divisions. We cannot win the fight against ISIL without full international cooperation to deny ISIL safe haven, disrupt its finances, counter its violent messaging, and share intelligence on its activities.    Numerous European and Middle Eastern governments have reached out to the department to express their concerns about this bill. The Dutch Parliament unanimously passed a motion on July 6th calling JASTA a breach of Dutch sovereignty that could expose the Netherlands to astronomically high damages via exposure to liability in U.S. courts.    I have seen firsthand throughout my career that the United States benefits significantly from the protection afforded by foreign sovereign immunity given its extensive diplomatic security and assistance operations.    We believe, just as importantly, that this legislation opens the U.S. to litigation abroad. As Members of this Committee know, some actions the United States takes overseas can be controversial, and if JASTA is enacted, it could erode our sovereign immunity protections abroad. Even if they are not eager to do so--and in many cases foreign governments are fully supportive of the counterterrorism steps the United States has taken--such governments will come under intense public pressure to create rights for their citizens to soothe the United States.    As you know, the United States funds, trains, and equips numerous groups around the world. Exposing the United States to lawsuits in foreign courts could open the door to litigation seeking claims against the U.S. government and reduce our ability to work with groups that have been vital to achieving our national security objectives.    U.S. counterterrorism strikes that have been a crucial and successful component of our counter-Al-Qaeda and counter-ISIL efforts do occasionally, tragically, and despite all safeguards, cause civilian casualties. If foreign courts were to take a similar approach in a country where such a strike took place, they might allow suits to be brought against the United States for such actions.    Additionally, men and women working on such operations could face the risk of being brought to trial or compelled to provide evidence if they travel to the country where the operation occurred. We have deep concerns about exposing this broad range of U.S. national security-related conduct to scrutiny in foreign courts. These risks could ultimately have a chilling effect on our own counterterrorism efforts.    Finally, I want to mention the possibility that JASTA may cause foreign governments to reconsider their investments here because they may have concerns that their money would be at risk of being attached in connection with a lawsuit. Before proceeding with this legislation, we believe there needs to be additional consideration of the potential unintended consequences of its enactment.    We welcome opportunities to engage with the Subcommittee on that discussion. I also want to thank the Subcommittee for your ongoing support as we continue to advance our national security interests, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentlelady, and I will now recognize our second witness, Mr. Egan. Sir, if you will turn that microphone on before speaking, as well.</t>
   </si>
   <si>
-    <t>Egan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Egan. Thank you, Chairman Franks, Ranking Member Cohen, and Members of the Subcommittee. I also appreciate the opportunity to appear before you with my colleague, Assistant Secretary Anne Patterson, to discuss the Justice Against Sponsors of Terrorism Act.    At the outset, I would like to express my deep sympathy for the families whose loved ones perished in the attacks on September 11th. I grew up in a community in New Jersey that was deeply affected by the World Trade Center attacks, and for much of my career in government at the Departments of State and Treasury, and at the National Security Council, I have worked on mechanisms that would enable our government to confront terrorism, including financial sanctions, and the use of military force where appropriate.    I am going to focus my comments today on the importance of the concept of sovereign immunity to the United States, and our concern that passage of JASTA will lead to harmful, reciprocal--excuse me--legislation and lawsuits against the United States overseas.    The principle of sovereign immunity, which restricts lawsuits against foreign governments, is well-accepted in international law, and was long recognized by U.S. courts as a matter of common law. The United States benefits greatly from the protection afforded by foreign sovereign immunity, and the Department of Justice regularly and vigorously defends our sovereign immunity overseas.    Over the years, Congress and the executive branch have worked together to approach issues of foreign sovereign immunity and exceptions with great caution. The Foreign Sovereign Immunities Act, or FSIA, was enacted in 1976, following many years of study and consultation between Congress and the executive branch, academics, the American Bar Association, and private practitioners.    The act focuses on the narrow instances in which a foreign state's immunity is denied. For example, a foreign state's commercial activities in the United States or having direct effects here.    The narrow, noncommercial tort exception to immunity was aimed primarily at the problem of traffic accidents, and it provides jurisdiction for torts committed by foreign governments inside the United States that result in injuries here.    Later enacted provisions relating to terrorism prudentially restrict the ability to sue foreign governments in U.S. courts for acts undertaken abroad to those states that have been designated by the executive branch as state sponsors of terrorism: currently Iran, Sudan, and Syria.    JASTA would represent a significant departure from this carefully crafted framework. JASTA would strip any foreign government of its sovereign immunity, and expose the relevant country to lawsuits in U.S. courts based on allegations in the lawsuit that the country's actions abroad made it responsible for an attack on U.S. soil. As Ambassador Patterson noted, a number of U.S. partners and allies have raised concerns about the potential consequences of this change.    The adoption of legislation like JASTA likely would have reciprocal consequences for the United States and increase our country's vulnerability to lawsuits overseas. Reciprocity plays a substantial role in foreign relations. JASTA could encourage foreign courts to exercise jurisdiction over the United States or U.S. officials for allegedly causing injuries overseas through groups we support as part of our counterterrorism efforts, circumstances in which we properly would consider ourselves to be immune.    Notwithstanding the care with which the United States operates to ensure that its actions overseas are appropriately calibrated, exposing U.S. national security-related conduct and decision-making to scrutiny in foreign courts would present significant concerns. Such litigation would have the potential for intrusive requests for sensitive U.S. documents and witnesses that we would not be willing to provide. There is a risk of sizeable monetary damages awards in such cases, which could then lead to efforts to attach U.S. government property in far-flung places.    Given the broad range of U.S. activities and presence around the world, the United States is a much larger target for such litigation than any other country. We stand ready to work with this Subcommittee and other Members of Congress to consider these important issues further, and I look forward to taking your questions. Thank you.</t>
   </si>
   <si>
@@ -259,9 +241,6 @@
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman, for holding this hearing today. I have a number of questions, but I want to note that I am proud to be the lead Democratic sponsor of this bill, alongside Mr. King of New York. I represent Lower Manhattan, where thousands of Americans were brutally murdered in the September 11th, 2001, terrorist attacks. JASTA would help ensure that those responsible for aiding and abetting these attacks are held accountable for their actions.    Unfortunately, because of certain court decisions that misinterpreted the Foreign Sovereignty Immunities Act and the Antiterrorism Act, 9/11 victims and their families have been unable to pursue their claims in court against some of the parties they believe were responsible for funding the attacks.    JASTA simply reinstates what was understood to be the law for 30 years--that foreign states may be brought to justice for aiding and abetting acts of international terrorism that occur on American soil, whether or not the conduct that facilitated the attack was conducted in the United States.    Let me be clear--this bill does not prejudge the merits of any particular case. It simply ensures that the 9/11 families, or anyone else who may be similarly situated can plead their case in court.    We have various objection to this, and we will hear various objections to this legislation today, primarily centered around the fear that other Nations may pass reciprocal legislation in retaliation, which would subject Americans or the United States itself to liability in those countries.    I find this argument unpersuasive. Unless the United States engages in international terrorist activity, which is carefully defined in law, it would face no legal jeopardy if another country passed an identical law. And given that no countries have retaliated in the 40 years since the Foreign Sovereignty Immunities Act, and it's well established tort exception was enacted into law, it is hard to understand why this very narrow classification should now raise alarms.    To the extent that one particular country may fear being held to account for its actions and might be threatening retaliation of some sort, there is no--that is no reason to deny justice to the victims of 9/11 and their families.    The Foreign Sovereignty Immunities Act was intended in part to ensure that the President would not be put in the position of determining which claims could be heard, and which would be protected by sovereign immunity. Although JASTA enables the executive to stay court proceedings if it is engaging in good-faith diplomatic negotiations to resolve a claim, it places the final determination of legal claims in the courts, where it belongs.    JASTA is a narrow bill that has been carefully negotiated over the last 6 years and which passed the Senate unanimously for the second time in May. It deserves swift passage in the House of Representatives, as well, and I appreciate your holding this hearing today so that we can begin this process.    Now, Ambassador Egan--Mr. Egan, rather--I am sorry--as I understood your argument, if a foreign government writes a million-dollar check to Al-Qaeda in a cafe in New York to fund a terrorist attack in the United States, the existing tort exception to the Foreign Sovereign Immunities Act provides jurisdiction to sue that government in a U.S. court.    But if that same government agent wrote the same million-dollar check in a cafe in Geneva, his government should be immune from liability for causing the very same terrorist attack. What is the rationale for that argument?</t>
   </si>
   <si>
@@ -307,36 +286,24 @@
     <t xml:space="preserve">    Mr. Franks. I thank the gentleman, and I would also now like to thank Ambassador Patterson and Mr. Egan for their time and expertise. Thank you for coming, and I would like now to invite the members of our second panel of witnesses to come forward. While you are being seated, I will go ahead and introduce our witnesses.    Our first witness on this panel will be Michael Mukasey. From 2007 until 2009, Judge Mukasey served as the Attorney General of the United States, and from 1988 to 2006, he served as district judge in the United States District Court for the Southern District of New York, becoming Chief Judge in the year 2000.    Our next witness is Richard Klingler, a partner at Sidley Austin. Mr. Klingler has served as the general counsel and legal advisor on the National Security Council, and a special assistant and Senior Associate Council to the president.    Our third witness is Paul Stephan, the Jeffries distinguished professor of law at the University of Virginia Law School. Professor Stephan has served as counselor on international law, and at the U.S. Department of State, and as a law clerk to U.S. Supreme Court Justice Louis Powell.    Our final witness is Jimmy Gurule, a professor of law at Norte Dame Law School. Professor Gurule has served as the undersecretary for Enforcement at the Department of Treasury, and assistant attorney general for the Office of Justice Programs at the Justice Department. Thank you all for being here.    Each of the witnesses' written statements will be entered into the record in its entirety. And I would now ask that each witness summarize his or her testimony in 5 minutes or less, and to help you stay within that time, there is a timing light in front of you. The light switch will switch from green to yellow, indicating that you have 1 minute to conclude your testimony.    When the light turns red, it indicates that the witness' 5 minutes have expired. And before I recognize the witnesses, it is the tradition of the Subcommittee that they be sworn, so if you will please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth, so help you God? Thank you, you may be seated. Let the record reflect that the witnesses answered in the affirmative.    And I will now recognize our first witness, Mr. Mukasey. Mr. Mukasey, welcome back, sir. And if you will please turn that microphone on before you speak.</t>
   </si>
   <si>
-    <t>Mukasey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mukasey. Thank you, Mr. Chairman, and thanks to the ranking number, and thanks in particular to the Committee for having this hearing. I do not want to simply run through the statement that I submitted to the Committee; it is in the record.    I am particularly pleased to see that the Committee is holding this hearing because, you know, the founders thought that the Senate would be the saucer in which the passions that might be unleashed in the House would be cooled. This bill, as was pointed out earlier, went through the Senate by a voice vote with no hearing. So, it is a pleasure to see the House serving as the saucer that the founders thought the Senate would be.    There are two principal problems with this bill: one is reciprocity and the other is futility. Reciprocity, I think, has been an alluded to. It is not that it would open U.S. courts--that is, it would open liability of foreign governments in U.S. courts--it is that it would open U.S. personal overseas to retaliation overseas. We are the most present country in the world. We are in more places with more people than anybody else in the world; we are the only superpower in the world right now. We want to stay that way.    I think that passing a bill like this which chips away at the concept of sovereign immunity can only hurt us; because we are the most present country in the world, it cannot help us. And there are not only hostile countries, but friendly countries, where there are people who would like to see us held to account for things that they think we ought to be held to account for.    The former Secretary of Defense, Donald Rumsfeld, was threatened with prosecution in Belgium of all places, until it was pointed out that we could pull are NATO headquarters out of Brussels, and they came to their senses. There have been prosecutions of our armed forces in Italy; there are threats to do, as it was pointed out by the State Department, some of our people in Egypt were prosecuted in those courts.    And the courts in foreign countries, where people have an interest in doing this, are much less controlled, and much less fair than our own courts. And there is no indication necessarily that this would be limited to court proceedings, that they would pass an identical statute. They are going to use this as an excuse to chip away at sovereign immunity.    From what I can think of, there are only really two countries--three countries that have anything terrible to lose here. One is the United States, the other is the U.K., and the third is Israel. And those three countries have the most to lose from chipping away at that content.    As to futility, I cannot do really any better than Judge Royce Lamberth of the D.C. District Court in a case called in Iranian terrorism cases, in which he called those cases against Iran, which is already on the foreign terrorist sponsor list, unsustainable, because in essence, sovereign assets are not subjected to attachment; and what you create is essentially a bridge to nowhere.    This is not going to help the people it is intended to help. The only people I think it can help are trial lawyers. And I do not see passing a bill in aid of that.    I would also like to respond to a couple of questions that were raised in the course of the questioning before. One actually was in the initial comments of Chairman Goodlatte who said that, you know, if a foreign government gives a bomb to a terrorist organization, and they drop it, here, why should they not be subject to suit here? That is an act of war under any standard of international law. And when FDR went in front of Congress on December 8, 1941, he did not ask Congress to strip the sovereign immunity of Japan, and open it up to lawsuits for what they did at Pearl Harbor; he asked for a declaration of war.    There are obviously steps short of war that we can take, and those were outlined by the State Department. But that is the way we respond to conduct like that. As to the question of why it is that courts should not respond, I think Judge Lambert said specifically that courts are not suited to respond to this, and the Constitution says why courts should not respond.    The Constitution places in the hands of the executive the exclusive right to conduct foreign relations. It does not give it to Article III courts. And having been in an Article III court, I know that Article III courts take on a lot of reasonabilities, but I do not think that ought to be one. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, Judge Mukasey, and I would now recognize our second witness, Mr. Klingler. And, sir, if you would turn that microphone on.</t>
   </si>
   <si>
-    <t>Klingler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Klingler. Thank you, Chairman, Ranking Member Cohen for this opportunity to appear before you. My legal practice and service in government have focused on counterterrorism and related constitutional and statutory issues.    Although I represent certain victims of the September 11th attacks, in ongoing litigations that JASTA would assist, my comments address the broader benefits and operation of this important legislation, as elaborated in my written submission. JASTA modernizes the FSIA's treatment of claims directed against state-facilitated terrorism striking the United States.    As we painfully learned, terrorist attacks here are often the tragic conclusion of a course of conduct that originates abroad. Officials and agents of various foreign states in the Middle East, South and Central Asia and elsewhere, have various dealings with terrorist organizations, with international capabilities, and deeply-held hostility to Americans.    Courts have addressed state-facilitated terrorism under the FSIA for decades, but risks of adverse state action are increasing. At the same time, our Nation's capabilities to address these risks through civil litigation have proven inadequate. The principal statute designed to deter and remedy acts of terrorism, the ATA, generally does not apply to foreign states.    Two FSIA provisions already permit certain terrorism-related claims against foreign states, but one depends on the rarely used power to designate foreign states sponsors of terrorism, and the other, the tort exception, is not designed for terrorism in particular, and has at times has been applied narrowly.    JASTA enhances the ability of U.S. courts to address acts of terrorism, but only narrowly expands existing exceptions to foreign sovereign immunity. It slightly adjusts the tort exception, which has long supported claims against state-sponsored terrorism.    JASTA supports only claims that concern a state facilitated attack on U.S. soil. Any sovereign has the ability and obligation to remedy such injuries; as the Supreme Court cases made clear, Congress is the appropriate body to discharge that obligation, by enabling legal claims.    Expanding the scope of civil litigation can ensure justice for victims, deter and redress specific attacks and enhance our Nation's counterterrorism efforts. The prospect of litigation can prompt sovereigns to disentangle their operations from terrorist networks, or to provide justice to victims. Judicial processes, or state-to-state negotiated settlements, can provide a reckoning with history, demonstrate current commitment to right conduct, and enhance relationships with the U.S. government and financial community.    JASTA also claims the FSIA's strategy of depoliticizing immunity determination by transferring responsibility from the executive to the judiciary, but it maintains important roles for the executive. JASTA does not disturb the president's exclusive role to determine which foreign states maybe subject to sue for claims of injury abroad.    For terrorist attacks here, JASTA draws upon a different presidential power, to suspend claims to effectuate state-to-state agreements that would provide comparable redress. For claims under Section 1605(b), the executive can limit suits against foreign sovereigns, but must do so while also fostering the interest of the victims. Nor does the possibility that foreign states might mirror JASTA's jurisdiction pose risk to U.S. activities.    JASTA narrowly focuses on state-facilitated acts of international terrorism, based on a narrow, established definition. Its exception does not extend to self-defense and like actions, and does not concern claims against individuals.    If the concern is instead that foreign states will use JASTA simply as an excuse to implement broader exceptions to immunity, that has little to do with JASTA. Any state seeking to do so could point to the FSIA's existing tort exception, and its provisions related to state-sponsored terrorism.    As the Supreme Court Salman Khan decision confirms, the FSIA and JASTA's amendments, therefore, have nothing to do with claims against individual officials, and provide no basis for foreign states to expand claims against American officials. The scope of sovereignty administered by the executive is unchanged with respect to those individuals.    But the relative exception to sovereignty related to claims against foreign states was created in 1976, and expanded in the 1980's and 1990's. JASTA is no sea change. Its opponent's real quarrel is with Congress' earlier policy judgements, which have produced no dire consequences over decades.    Instead, considerations of military, political and economic power, and our diplomacy, have determined, and will continue to determine, whether foreign Nations foster legal claims against the United States, just as they do for other potential foreign state actions adverse to our interests. JASTA would not change that calculus.    It does, though, empower and encourage our diplomats to use those traditional tools more effectively, to include the interests of victims of terrorism among our highest foreign policy objectives.    And if I might add just a quick observation about the State Department presentations we just heard--you know, they failed to acknowledge how existing FSIA provisions could be used as the pretext for expanded foreign state jurisdiction that the State Department fears. They failed to point to any adverse consequences arisen from decades of cases applying 1605, 85 and Section 1605A, to foreign states for facilitating terror, other than the Cuban and Iranian judgments, which frankly are a political issue, and would be dealt with on a political basis just as any others would.    The Department failed to note that the Administration's own prominent exaggerations of the changes reflected in JASTA have contributed to certain confusion and discomfort on the issue abroad.    And it failed to address, altogether, the Department's role in fostering state-to-state settlements and securing accountability for wrongful foreign state actions directed at U.S. citizens.    All these characteristics of the Department's response indicate why JASTA is needed, rather than why it is not, and explains why the Senate unanimously rejected the Administration's arguments. So JASTA confirms Congresses' initial policy judgments reflecting the FFSI, and generally seeks to ensure the Department will place a much higher priority on terrorism. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. I thank you gentlemen. And I would now recognize our third witness, Mr. Stephan. And, Mr. Stephan, if you would please turn that microphone on.</t>
   </si>
   <si>
-    <t>Stephan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stephan. Thank you, Mr. Chairman Franks, Ranking Member Mr. Cohen, and other Members of the Committee; I am very grateful for the opportunity to testify here. I have devoted my entire professional life to the foreign relations law of the United States, both in the academy and in government service. I have no clients; I represent no one in this case. I am here to try and help the Committee if I can.    I speak in opposition to the bill under consideration. I wish to make three points. First, this bill, were it adopted as law, would likely harm the United States, as well as our allies by increasing exposure to litigation abroad.    Second, this bill is not likely to achieve its stated aim, which is to whole foreign states accountable for material support for terrorism and to provide justice for their victims.    Third, this bill would privatize the national security of the United States, contrary to any sensible antiterrorism policy.    Existing law already provides a right for victims of state-sponsored terrorism to seek compensation through litigation. What this bill would do is strip the executive branch of its proper authority, provided by this Congress, to determine which states sponsor terrorism, and to give that power instead to private litigants. Such a grave matter as identifying states that are mortal threats to U.S. interests should not be left to private lawsuits. To put it bluntly, if Saudi Arabia did provide material support for the 9/11 attacks, we should be responding with cruise missiles, not with plaintiff's attorneys.    And if they did not, seeking to extract money from them for the victims of those attacks may be justified on principals of charity and compassion, but not by justice. As you already have heard today, no country benefits from the international law of sovereign immunity more than the United States.    Moreover, our worldwide interests and responsibilities mean that we do many things that foreign lawyers and judges do not like, and might consider illegal, especially when we fight terrorism. At the end of the day, increasing the exposure of our antiterrorism effort to foreign legal liability does not seem like a sound way to fight terrorist threats.    Let me make this point concrete--in response to the judgement of the International Court of Justice requiring sovereign immunity, the Italian courts proved defiant. They struck down an act of their Parliament that had implemented this judgement, declaring that the rights of persons to litigate their claims in Italian courts overrides core principals of international law.    Italy, as already has been noted today, is also a country where courts have brought criminal prosections against U.S. officials involved in apprehending suspected terrorists. These prosecutions arguably violate Italy's treaty commitments to us. Enactment of this bill will encourage the Italian courts, already inclined to disregard specific rules of international law, as well as treaties, to create even more exceptions to sovereign immunities. This would expose the United States to severe litigation risks for counterterrorism activates.    Other countries will notice and respond accordingly, not only against us, but against our allies in this struggle, including the United Kingdom and Israel.    Next, it is very unlikely that this bill will achieve its stated purpose. Most states, when confronted with lawsuits in foreign courts that they regard as violating their rights under international law, refuse to appear. When default judgements result, they refuse to pay. This bill does not affect the incentives of foreign states to do exactly this.    As a result, the lawsuits the bill would permit are unlikely to unearth evidence that would identify, much less punish, state sponsors of terrorism, or to produce acknowledgement of culpability accompied by compensation.    Finally, there is something seriously wrong with privatizing American national security policy. Although Section 5 of the Senate bill allows the judge to stay the suit at the request of the executive, it does not require this. It still leaves it to the court and the litigants to decide when to do so. If they regard the efforts of the executive to unearth evidence of state support for terrorism is unsatisfactory, this bill gives them a green light to go forward.    It is therefore completely unlike the Iranian claims litigation, where the executive could require courts to stay lawsuits. Thank you for your attention; I am happy to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. I thank the gentleman, and now recognize our fourth and final witness, Mr. Gurule. Sir, if you would turn that microphone on, too.</t>
   </si>
   <si>
-    <t>Gurule</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gurule. Chairman Franks, Ranking Member Cohen, and other distinguished Members of the Subcommittee, I would like to thank you for holding this important hearing on the Justice Against Sponsors of Terrorism Act, and inviting me to testify on the value of this legislation in combating the threat of global terrorism.    As we approach the 15 year anniversary of the 9/11 terrorist attacks that tragically took the lives of approximately 3,000 innocent civilians, it is imperative that the U.S. Government continue to strengthen the effectiveness of its counterterrorism efforts, including depriving terrorists of funding, as well as deterring and punishing their financial sponsors, including foreign states.    The enactment of JASTA is critical to achieving that objective. I would like to just briefly comment on three points--the first is the important goals advanced by JASTA; second, the fact that JASTA is narrowly drafted, narrowly tailored; and third, debunking the reciprocity arguments that are clearly, in my opinion, overstated. First, on the goals of JASTA--civil tort actions that seek large monetary damages provide an invaluable supplement to the criminal justice process and administrative blocking orders.    These civil tort actions--claims, excuse me--advance five important goals--first, private lawsuits brought by victims of terrorism can have a deterrent effect against foreign governments that support acts of terrorism. While the threat of large civil monetary judgment may have little or no deterrent effect against the terrorists themselves, the same may not be true for foreign governments that lend financial support and direction to foreign terrorist organizations.    These foreign states are likely to have substantial assets in the United State that may be attached to enforce civil terrorism judgments. We have seen that recently with the Islamic Republic of Iran, that recently has been sued by the victims of the 1983 terror attacks in Beirut, and their assets in the United States, approximately $1.7 billion in assets in the United States, have been attached to enforce the terrorism judgement against Iran.    No one can tell me that that type of action, seizing those types of assets against a foreign state, is not going to have any deterrent effect against that foreign state with respect to its future activities, with respect to supporting acts of terrorism.    Second, civil actions targeting the assets of foreign states that support terrorism can reduce the ability of international terrorists to carry out their deadly attacks. Money is the life blood of terrorists. While terrorists seldom kill for money, they always need money to kill. Depriving terrorists of funding, especially from foreign state sponsors of terrorism, is critical to preventing terrorist attacks and saving innocent lives.    Third, foreign states that sponsor terrorism, including through government charities, should be held accountable for their action. That is a very fundamental principal and proposition.    Fourth, victims of international terrorism should be compensated for their unimaginable loss, pain and suffering. And the foreign states responsible for these physical and emotional injuries should be held responsible for that compensation.    And finally, the JASTA strengthens the statutory framework of the Foreign Sovereign Immunities Act and the Antiterrorism Act, and confirms the importance of civil litigation as an important tool in combating terrorism. With respect to JASTA itself, it is a very narrowly-tailored statute, and applies extremely limited and extraordinary circumstances, and does not permit U.S. nationals to routinely sue foreign states, as some critics of the legislation have maintained.    First, it has a geographic limitation; it only applies to acts of terrorism that occur in the United States. As a subject matter limitation, it only applies to acts of international terrorism, not other acts of violence; and international terrorism is a well-defined term in the Federal U.S. Statute 18     Fourth, the term international terrorism excludes any act of war, so that would not be covered in this legislation; it would not justify the cause of action for such actions. It is limited to actions that are aided and abetted by foreign terrorist organizations--that is another limitation. There is approximate cause limitation on the statutes, so these would be acts of international terrorism that were caused by the foreign state that aided and abetted the terrorist organization.    Further, the statute provides that it does not extend to negligent acts--negligence by the foreign state--but only intentional or knowing conduct involving the state.    And with respect to aiding and abetting, the statute provides that the foreign state must have provided substantial assistance to the foreign terrorist organization.    With respect to the last point, on the overstatement regarding the reciprocity concerns, let me just simply say countries with the greatest potential for such lawsuits against the United States have authoritarian regimes that do not permit their citizens to bring civil suits against foreign governments for acts of international terrorism. In those countries, such actions are the exclusive purgative of the authoritarian government.    For example, the private civil terrorism lawsuit filed against Iran for its complicity in the 1983 terrorist attack in Beirut, Lebanon, killing over 200 American servicemen, did not result in retaliatory lawsuits be filed against the United States by private citizens in Iran.    Furthermore, the civil terrorism case did not undermine the U.S. Government's efforts to finalize the joint comprehensive plan of action with the Islamic Republic of Iran. The civil terrorism lawsuit was pending when the United States and its allies were negotiating and finalizing the terms of the multilateral agreement with Iran to limit the country's ability to develop nuclear weapons.    So it had no effect--the fact is the pending terrorism suit had no effect on that. So I think that the statement regarding retaliation is largely overstated.    And finally, in conclusion, the JASTA eliminates sovereign immunity for foreign states that intentionally, knowingly, aid and abet terrorist organizations in carrying out deadly attacks on U.S. soil; in my opinion that is good U.S. policy, and as a result, the JASTA should be enacted into law by Congress. Thank you.</t>
   </si>
   <si>
@@ -373,9 +340,6 @@
     <t xml:space="preserve">    Mr. Klingler. Very few. I represent an association of insurers. I work with co-council, who represent, you know, a much broader range. And at times, when I have, say, argued in the second circuit on this issue, it is on behalf of the broader range of plaintiffs.</t>
   </si>
   <si>
-    <t>Cohens</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohens. How many victims of 9/11 are involved?</t>
   </si>
   <si>
@@ -563,9 +527,6 @@
   </si>
   <si>
     <t>412385</t>
-  </si>
-  <si>
-    <t>Theodore E. Deutch</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you Mr. Chairman. Judge Mukasey, I just want to go back to something you said earlier about the role that a court would actually play here. I mean, there is a terrorism exception currently, right, under the foreign sovereign immunities?</t>
@@ -1024,11 +985,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1048,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1076,11 +1033,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1100,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1128,11 +1081,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1152,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1180,11 +1129,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1204,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1232,11 +1177,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1256,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1284,11 +1225,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1308,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1336,11 +1273,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1360,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1388,11 +1321,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1412,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1438,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1466,11 +1393,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1490,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1518,11 +1441,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1542,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1570,11 +1489,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1594,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1620,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1646,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1672,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1698,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1724,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1750,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1776,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1802,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1828,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1854,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1880,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1906,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1932,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1958,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1984,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2010,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2036,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2062,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2088,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2114,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2140,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2166,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2192,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2218,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2246,11 +2113,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2270,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2296,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2322,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2348,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2374,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2400,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2426,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2452,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2478,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2504,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2530,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2558,11 +2401,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2582,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2608,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2634,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2660,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2686,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2712,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2738,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>81</v>
-      </c>
-      <c r="H68" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2764,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2790,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2816,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2842,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2868,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2894,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2920,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2948,11 +2761,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2972,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3000,11 +2809,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3024,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3052,11 +2857,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3076,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3104,11 +2905,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3128,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3156,11 +2953,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3180,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3208,11 +3001,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3232,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3260,11 +3049,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3284,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3312,11 +3097,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3336,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3364,11 +3145,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3388,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3414,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3440,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3466,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3492,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3518,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3544,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3570,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3596,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3622,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3648,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3674,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3700,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3726,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3752,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3778,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3804,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3830,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3856,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3882,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3908,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3934,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3960,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3986,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4012,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4038,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4064,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4090,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4116,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4142,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4168,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4196,11 +3913,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4220,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4246,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4272,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4298,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4324,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4350,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4376,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4402,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4428,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4456,11 +4153,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4480,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>80</v>
-      </c>
-      <c r="G135" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4506,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4532,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>80</v>
-      </c>
-      <c r="G137" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4558,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4584,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>80</v>
-      </c>
-      <c r="G139" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4610,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4636,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
-      </c>
-      <c r="G141" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4662,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4688,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>80</v>
-      </c>
-      <c r="G143" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4714,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4740,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>80</v>
-      </c>
-      <c r="G145" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4766,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4792,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>80</v>
-      </c>
-      <c r="G147" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4818,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4844,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>80</v>
-      </c>
-      <c r="G149" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4870,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4896,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>80</v>
-      </c>
-      <c r="G151" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4922,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4948,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>80</v>
-      </c>
-      <c r="G153" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4974,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5000,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>80</v>
-      </c>
-      <c r="G155" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5028,11 +4681,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5052,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>182</v>
-      </c>
-      <c r="G157" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5078,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5104,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>182</v>
-      </c>
-      <c r="G159" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5130,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5156,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>182</v>
-      </c>
-      <c r="G161" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5182,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5208,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>182</v>
-      </c>
-      <c r="G163" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5234,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5260,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>182</v>
-      </c>
-      <c r="G165" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5286,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5312,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
-      </c>
-      <c r="G167" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5338,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5364,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>182</v>
-      </c>
-      <c r="G169" t="s">
+        <v>170</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
         <v>183</v>
-      </c>
-      <c r="H169" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5390,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5416,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>182</v>
-      </c>
-      <c r="G171" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5442,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>103</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5468,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>182</v>
-      </c>
-      <c r="G173" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5494,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5520,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>182</v>
-      </c>
-      <c r="G175" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5548,11 +5161,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20724.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20724.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order, and without objection, the Chair is authorized to declare a recess of the Committee at any time. Welcome to all of you here. The subject of today's hearing is the Senate-passed version of the Justice Against Sponsors of Terrorism Act, or JASTA for short. Earlier this year, this legislation was unanimously reported out of the Senate Judiciary Committee, and in May, passed the Senate by a voice vote.    However, despite the broad bipartisan support for this legislation in the Senate, the State Department has raised concerns with JASTA, and we have called this hearing to examine those concerns. JASTA essentially makes two changes to Federal law.    First, it amends the Foreign Service Immunities Act to add the existing exceptions to the foreign sovereign immunity and exception for terrorist attacks that cause physical injury or death in the United States. Under current law, there appears to be some confusion or disagreement in the courts as the whether the Foreign Sovereign Immunity Acts tort exception waives the immunity of foreign governments that provide material support to foreign terrorist organizations that cause damage in the United States.    JASTA makes clear that a foreign government that aids and abets a foreign terrorist organization in carrying out a terrorist attack on U.S. soil will not be immune from the jurisdiction of our court.    Second, JASTA amends the Antiterrorism Act to clarify that those who aid, abet, or conspire with a foreign terrorist organization are subject to civil liability. There is currently a split in the Federal Courts of Appeal on the question of whether the Antiterrorism Act permits lawsuits based on aiding and abetting terrorists.    JASTA provides that if a person aids and abets a State Department-designated foreign terrorist organization by knowingly providing that organization with substantial assistance, that person will be subjected to civil liability.    By making these two changes to existing law, JASTA seeks to ensure that those, including foreign governments, who sponsor terrorist attacks on U.S. soil are held fully accountable for their actions. In addition, JASTA attempts to enhance the effectiveness of U.S. efforts at combatting terrorism and combatting terrorist financing by making those who provide financial support to foreign terrorist organizations liable for their conduct.    JASTA would appear to be consistent with existing U.S. principles of foreign sovereign immunity, which permits lawsuits against foreign governments in U.S. court cases in the following instances--in which a foreign government has waived its immunity, that are based on a commercial activity carried out in the United States or which causes a direct effect in the United States, or in which the rights and property taken in violation of international laws are at issue, or in which money damages are sought against a foreign state for personal injury or death, or damage or loss of property occurring in the United States, and finally that are brought against designated state sponsors of terrorism.    Despite the numerous, longstanding exceptions to foreign sovereign immunity already provided under U.S. law, the State Department and others have expressed concerns with JASTA and its potential ramifications on U.S. foreign policy. Out of respect for those concerns, we have invited the State Department here to testify before the Committee, and we have also invited a second panel of witnesses to appear and provide additional perspective on the issues the State Department has raised with JASTA.    I look forward to the witnesses' testimony on this important subject, and I would now recognize the Ranking Member of the Subcommittee, Mr. Cohen, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair. I welcome today's hearing on Senate Bill 2040, the ``Justice Against Sponsors of Terrorism Act.'' The specific text was passed by the Senate, unanimous consent, May 17, 2016, but it did not receive a hearing or other formal vetting, so it is good that in the House we have a hearing, which is somewhat unusual for us.    S. 2040 would amend the Foreign Sovereign Immunities Act of 1976 to allow suits against foreign states for physical entry resulting from the act of international terrorism in the United States, and a tortious act on the part of the foreign state or its official employee or agent acting within the scope of his or her employment, wherever that act occurs.    The legislation also amends the Antiterrorism Act to explicitly provide for aiding and abetting liability. Finally, the bill contains a state provision allowing court to stay a case against a foreign state defender for up to 180 days; the possibility of an extension to go to a full year to allow the State Department to negotiate in good faith with the foreign state defendant to resolve the claims issued.    We have two panels of distinguished witnesses before us today, two folks from, I believe, both the diplomatic corps and the Mr. Mukasey, an outstanding former United States attorney, and then a buddy of Bob Brady's, which is almost equally in dignity to being a great former U.S. attorney.    And I hope that we can use this opportunity to learn about the bill to understand the detail of the arguments in its favor and the other potential conflicts. This is a difficult bill. You want to get justice for the victims of 9/11, but you also want to protect our national security.    The legislation arises from the litigation against various defendants concerning 9/11. Legislation is drafted in general terms. We consider it in that light as both the supporters and opponents seem to agree.    I am for access to justice and always have been, and it is my inclination to support such measures, and it is also my inclination to support, in any way I can, the victims of the dastardly deeds of 9/11. And it is particularly strong in that case, because that is something that we all experienced and should not get out of our psyches and our minds.    The bill supporters argue that it is needed to update laws to address cases where foreign states facilitate terrorist strikes in the United States through financing and other kinds of material support for foreign terrorist organizations like Al-Qaeda. They also assert the bill would deter such conduct in the future, thereby enhancing counterterrorism efforts.    They further contend that the Senate-passed language is narrow in scope, and the concerns about any reciprocal effects from enacting this legislation are exaggerated. The Obama administration, however, continues to raise concerns, even in the admitted form that we consider today, and I take that seriously as well.    In addition to the reciprocity concern, the Administration contends enactment of Senate Bill 2040 could undermine counterterrorism efforts, raise serious foreign policy concerns, and lead to a reduction of foreign investment in the United States. Some opponents further argue that enacting this bill could subject U.S. allies to liability in the U.S. courts, including countries like Britain and Israel.    Both sides have come forth with seemingly strong arguments, and while I appreciate the fact the Senate passed this language by voice vote, I think it is worth our while to have a discussion about the merits of S. 2040, and I thank the Chairman for having that hearing. I thank our witnesses for being here. I am looking forward to the testimony.</t>
   </si>
   <si>
@@ -67,24 +82,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Well, thank you, Mr. Chairman, and I want to begin by thanking Ambassador Patterson and Mr. Egan for appearing before the Committee today on behalf of the State Department. I know that the department has some foreign policy-related concerns with this legislation, and we wanted through this hearing to give the department the opportunity to express those concerns.    The Justice Against Sponsors of Terrorism Act has been introduced over several successive congresses, and has twice unanimously passed the Senate. Over the years that this legislation has been considered, we have worked with its sponsors and the Senate Judiciary Committee to make the bill's language more precise in order to ensure that any unintended consequences are kept to a minimum.    In particular, I have worked to make sure that JASTA's extension of secondary liability under the Antiterrorism Act closely tracks the common-law standard for aiding and abetting liability and is limited to State Department-designated foreign terrorist organizations.    Aiding and abetting liability should only attach under the ATA to persons who have actual knowledge that they are directly providing substantial assistance to a designated foreign terrorist organization, in connection with the organization's commission of an act of international terrorism. JASTA, as revised in the Senate Judiciary Committee, ensures that aiding and abetting liability is limited in this manner.    Beyond the Antiterrorism Act, JASTA amends the Foreign Sovereign Immunities Act in order to waive the sovereign immunity of any foreign government that sponsors an act of international terrorism that both causes physical injury in the United States, and occurs on U.S. soil.    JASTA makes this change because under current law, a foreign Nation can provide financing and other substantial assistance to a terrorist organization that attacks our country and escape liability so long as all of the material support is provided overseas.    For example, under current law, if a foreign state or any official or employee of that foreign state sets off a bomb on U.S. soil, injuring our citizens, the country would be liable under the Foreign Sovereign Immunities Act's tort exception. However, if we change the fact pattern slightly, so that rather than directly setting of the bomb, the foreign state instead gives a foreign terrorist organization the money it needs to attack the United States, the foreign state will not be subject to liability in U.S. courts.    This is a troubling loophole in our antiterrorism laws. When Congress enacted the Foreign Sovereign Immunities Act in 1976, it put in place a broad set of exceptions to sovereign immunity, including an exception for tort claims involving injuries occurring in the United States.    However, the courts have not consistently interpreted those exceptions in such a manner that they cover the sponsoring of a terrorist attack on U.S. soil. JASTA attempts to address this inconsistency with a concrete rule.    I am interested to hear, however, from the State Department as to why JASTA's amendments to the Foreign Sovereign Immunities Act present a threat to our relationships with countries that are important partners in combatting terrorism.    Certainly, we do not want to make it more difficult for the State Department, the Department of Defense, and other agencies to combat global terrorism, but at the same time, we do not want to have laws in place that make it impossible for U.S. citizens who are victims of terrorist attacks on U.S. soil to seek judicial redress against those who seek to harm us. I look forward to our witnesses' testimony on this important subject, and yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman, and I would now yield to the Ranking Member of the Committee, Mr. Conyers from Michigan.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank, Mr. Chairman. Members of the Committee, without question, the victims of the September 11 terrorist attack deserve our sympathy and our help, and this Committee has worked to enact interlaw measures that attempt to provide some relief to these victims. As we consider S. 2040, the Justice Against Sponsors of Terrorism Act, we must keep in mind that this legislation is written in general terms, and we should consider its impact beyond one case, however compelling that case may be.    Among other things, S. 2040 amends the Foreign Sovereign Immunities Act to create a new exception to the Act's general grant of foreign sovereign immunity. The exception would apply to claims arising from physical injury as a result of an act of international terrorism in the United States, as well as to a tortious act of a foreign state or its official, employee, or agent acting within his or her official capacity, regardless of where the tortious act took place.    The House has not previously held a hearing on this proposal, and neither chamber has held a hearing on this particular version of the legislation, so I approach this measure with an open mind. That being said, there are three overarching points that should inform our discussion today.    To begin with, the purpose of sovereign immunity is to ensure that disputes among Nations are ultimately resolved through diplomatic efforts rather than litigation. Customary international law provided absolute immunity for states in the courts of other states.    Nevertheless, in the last century, many countries, including the United States, came to realize that it was unfair to provide immunity in cases where countries were engaged in non-sovereign activities, such as ordinary commerce.    For this reason, countries began recognizing certain limited exceptions to sovereign immunity. The Foreign Sovereign Immunities Act codified the customary law of sovereign immunity recognized by our country at the time of the Act's enactment in 1976, including certain exceptions to sovereign immunity.    The Act also removed the need for, and the ability of the State Department, to make case-by-case determinations of whether a foreign state defendant was entitled to sovereign immunity and left such determination to courts as a matter of statutory interpretation, which in theory depoliticized such determinations.    In light of this history, we should consider what impact changing the scope of exceptions to sovereign immunity may have on United States interests. The Administration, some allied Nations, and others have raised the concern that the enactment of S. 2040 may lead to retaliation by other countries against the United States, given the breadth of our interests and expansive reach of our global activities.    For example, they contend a country like Afghanistan or Pakistan, under a future hostile regime, may enact legislation abrogating sovereign immunity to allow suits against the United States, against United States officials, or even our military personnel in response to drone strikes, or other activities in their countries.    The bill's supporters, on the other hand, argue that the already-existing exceptions to sovereign immunity, including the current state-sponsored terrorism exception, and the prior understanding of the tort exception, that this bill purports to restore, have not resulted in any meaningful retaliation against the United States.    So, finally, we should consider the impact this measure may have on our Nation's counterterrorism efforts. The bill's proponents argue that it will enhance such efforts by raising the prospect of depriving terrorists of resources, and deterring future terrorism financing.    On the other hand, others say that it will hamper cooperation from other countries because they may become more reluctant to share sensitive intelligence in light of the greater risks that such information may be revealed in litigation.    While this bill and the underlying litigation that spawned it arose from an emotionally searing event, I hope that we can be both respectful and clear-eyed as we consider the arguments to be presented by our distinguished witnesses. And so accordingly, I look forward to an engaging debate, and I thank our witnesses for being with us to share their thoughts on these important issues. I thank the Chair.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman, and without objection, other Members' opening statements will be made a part of the record.    So, let me now introduce our witnesses. We have two very distinguished panels today. I will begin by the first panel.    Our first witness is Ambassador Anne Patterson, the Assistant Secretary of State for Near East Affairs. Ambassador Patterson has served as the U.S. ambassador to four countries, and in 2008 was promoted to the rank of career ambassador, the highest rank in foreign service. She has served as Assistant Secretary of State for International Narcotics and Law Enforcement Affairs, and has served as Deputy Permanent Representative at the U.S. mission to the United Nations.    Our second witness is Brian Egan, the legal adviser to the State Department. Prior to being appointed as legal adviser, Mr. Egan served as legal adviser to the National Security Council, Deputy Assistant to the President, and Deputy Counsel to the President, and as Assistant General Counsel for Enforcement Intelligence at the Department of the Treasury.    Each of the witnesses' written statements will be entered into the record in its entirety, and I would ask that each witness summarize his or her testimony in 5 minutes or less. To help you stay within the time, there is a timing light in front of you. The light will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    So, before I recognize the witnesses, it is the tradition of the Subcommittee that they be sworn. So, if you would please stand and be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth, so help you God? You may be seated.    Let the record reflect that the witnesses answered in the affirmative, and I welcome both of you. And I now recognize our first witness, Ambassador Patterson; and Ambassador, if you might turn that microphone on before speaking.</t>
   </si>
   <si>
+    <t>Patterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Patterson. Okay, thank you, Chairman Franks, Ranking Member Cohen, Members of the Subcommittee. Thank you for inviting us to appear before you today to discuss the Justice Against Sponsors of Terrorism Act. I welcome the opportunity to testify with my colleague, Brian Egan, the Department of State's legal adviser.    I understand the motivation for this legislation, and all of us in the Administration deeply sympathize with the victims of terror and their families. I can personally attest that unprecedented resources have been dedicated to our national security to ensure that no other Americans will suffer the same fate as the victims of the September 11th attacks.    From the successful efforts against Al-Qaeda leadership in the Pakistan-Afghanistan border, to the vast improvement in our intelligence about terrorist leaders, and to our successes in rooting out sources of funding for terrorism, we have worked every day to protect the homeland. We all know that the families of the 9/11 victims have suffered grievously, and nothing will ever be sufficient to alleviate their suffering. However, the 9/11 attacks were, and have continued to be the subject of intense and exhaustive investigation by U.S. government agencies and commissions.    While these efforts will continue, I am here today to explain why the Administration believes that JASTA is not the right path forward. Most importantly, the passage of JASTA could undermine our critical fight against terrorism, and particularly against ISIL, by limiting our flexibility in operating overseas, and thereby threaten our national security interests.    JASTA represents a sea change in longstanding principles, and would allow private litigations against foreign governments in U.S. courts, based on allegations that such countries' actions abroad made them responsible for terrorism-related injuries on U.S. soil. This legislation would allow suits against countries that have neither been designated by the executive branch as state sponsors of terrorism, nor taken direct action in the United States to carry out an attack here.    JASTA would hinder our ability to protect our national security interests by damaging relationships with countries that are important, critical partners in combatting terrorism at a crucial time when we are trying to build coalitions, not create divisions. We cannot win the fight against ISIL without full international cooperation to deny ISIL safe haven, disrupt its finances, counter its violent messaging, and share intelligence on its activities.    Numerous European and Middle Eastern governments have reached out to the department to express their concerns about this bill. The Dutch Parliament unanimously passed a motion on July 6th calling JASTA a breach of Dutch sovereignty that could expose the Netherlands to astronomically high damages via exposure to liability in U.S. courts.    I have seen firsthand throughout my career that the United States benefits significantly from the protection afforded by foreign sovereign immunity given its extensive diplomatic security and assistance operations.    We believe, just as importantly, that this legislation opens the U.S. to litigation abroad. As Members of this Committee know, some actions the United States takes overseas can be controversial, and if JASTA is enacted, it could erode our sovereign immunity protections abroad. Even if they are not eager to do so--and in many cases foreign governments are fully supportive of the counterterrorism steps the United States has taken--such governments will come under intense public pressure to create rights for their citizens to soothe the United States.    As you know, the United States funds, trains, and equips numerous groups around the world. Exposing the United States to lawsuits in foreign courts could open the door to litigation seeking claims against the U.S. government and reduce our ability to work with groups that have been vital to achieving our national security objectives.    U.S. counterterrorism strikes that have been a crucial and successful component of our counter-Al-Qaeda and counter-ISIL efforts do occasionally, tragically, and despite all safeguards, cause civilian casualties. If foreign courts were to take a similar approach in a country where such a strike took place, they might allow suits to be brought against the United States for such actions.    Additionally, men and women working on such operations could face the risk of being brought to trial or compelled to provide evidence if they travel to the country where the operation occurred. We have deep concerns about exposing this broad range of U.S. national security-related conduct to scrutiny in foreign courts. These risks could ultimately have a chilling effect on our own counterterrorism efforts.    Finally, I want to mention the possibility that JASTA may cause foreign governments to reconsider their investments here because they may have concerns that their money would be at risk of being attached in connection with a lawsuit. Before proceeding with this legislation, we believe there needs to be additional consideration of the potential unintended consequences of its enactment.    We welcome opportunities to engage with the Subcommittee on that discussion. I also want to thank the Subcommittee for your ongoing support as we continue to advance our national security interests, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentlelady, and I will now recognize our second witness, Mr. Egan. Sir, if you will turn that microphone on before speaking, as well.</t>
   </si>
   <si>
+    <t>Egan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Egan. Thank you, Chairman Franks, Ranking Member Cohen, and Members of the Subcommittee. I also appreciate the opportunity to appear before you with my colleague, Assistant Secretary Anne Patterson, to discuss the Justice Against Sponsors of Terrorism Act.    At the outset, I would like to express my deep sympathy for the families whose loved ones perished in the attacks on September 11th. I grew up in a community in New Jersey that was deeply affected by the World Trade Center attacks, and for much of my career in government at the Departments of State and Treasury, and at the National Security Council, I have worked on mechanisms that would enable our government to confront terrorism, including financial sanctions, and the use of military force where appropriate.    I am going to focus my comments today on the importance of the concept of sovereign immunity to the United States, and our concern that passage of JASTA will lead to harmful, reciprocal--excuse me--legislation and lawsuits against the United States overseas.    The principle of sovereign immunity, which restricts lawsuits against foreign governments, is well-accepted in international law, and was long recognized by U.S. courts as a matter of common law. The United States benefits greatly from the protection afforded by foreign sovereign immunity, and the Department of Justice regularly and vigorously defends our sovereign immunity overseas.    Over the years, Congress and the executive branch have worked together to approach issues of foreign sovereign immunity and exceptions with great caution. The Foreign Sovereign Immunities Act, or FSIA, was enacted in 1976, following many years of study and consultation between Congress and the executive branch, academics, the American Bar Association, and private practitioners.    The act focuses on the narrow instances in which a foreign state's immunity is denied. For example, a foreign state's commercial activities in the United States or having direct effects here.    The narrow, noncommercial tort exception to immunity was aimed primarily at the problem of traffic accidents, and it provides jurisdiction for torts committed by foreign governments inside the United States that result in injuries here.    Later enacted provisions relating to terrorism prudentially restrict the ability to sue foreign governments in U.S. courts for acts undertaken abroad to those states that have been designated by the executive branch as state sponsors of terrorism: currently Iran, Sudan, and Syria.    JASTA would represent a significant departure from this carefully crafted framework. JASTA would strip any foreign government of its sovereign immunity, and expose the relevant country to lawsuits in U.S. courts based on allegations in the lawsuit that the country's actions abroad made it responsible for an attack on U.S. soil. As Ambassador Patterson noted, a number of U.S. partners and allies have raised concerns about the potential consequences of this change.    The adoption of legislation like JASTA likely would have reciprocal consequences for the United States and increase our country's vulnerability to lawsuits overseas. Reciprocity plays a substantial role in foreign relations. JASTA could encourage foreign courts to exercise jurisdiction over the United States or U.S. officials for allegedly causing injuries overseas through groups we support as part of our counterterrorism efforts, circumstances in which we properly would consider ourselves to be immune.    Notwithstanding the care with which the United States operates to ensure that its actions overseas are appropriately calibrated, exposing U.S. national security-related conduct and decision-making to scrutiny in foreign courts would present significant concerns. Such litigation would have the potential for intrusive requests for sensitive U.S. documents and witnesses that we would not be willing to provide. There is a risk of sizeable monetary damages awards in such cases, which could then lead to efforts to attach U.S. government property in far-flung places.    Given the broad range of U.S. activities and presence around the world, the United States is a much larger target for such litigation than any other country. We stand ready to work with this Subcommittee and other Members of Congress to consider these important issues further, and I look forward to taking your questions. Thank you.</t>
   </si>
   <si>
@@ -241,6 +268,12 @@
     <t>400289</t>
   </si>
   <si>
+    <t>Nadler</t>
+  </si>
+  <si>
+    <t>Jerrold</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman, for holding this hearing today. I have a number of questions, but I want to note that I am proud to be the lead Democratic sponsor of this bill, alongside Mr. King of New York. I represent Lower Manhattan, where thousands of Americans were brutally murdered in the September 11th, 2001, terrorist attacks. JASTA would help ensure that those responsible for aiding and abetting these attacks are held accountable for their actions.    Unfortunately, because of certain court decisions that misinterpreted the Foreign Sovereignty Immunities Act and the Antiterrorism Act, 9/11 victims and their families have been unable to pursue their claims in court against some of the parties they believe were responsible for funding the attacks.    JASTA simply reinstates what was understood to be the law for 30 years--that foreign states may be brought to justice for aiding and abetting acts of international terrorism that occur on American soil, whether or not the conduct that facilitated the attack was conducted in the United States.    Let me be clear--this bill does not prejudge the merits of any particular case. It simply ensures that the 9/11 families, or anyone else who may be similarly situated can plead their case in court.    We have various objection to this, and we will hear various objections to this legislation today, primarily centered around the fear that other Nations may pass reciprocal legislation in retaliation, which would subject Americans or the United States itself to liability in those countries.    I find this argument unpersuasive. Unless the United States engages in international terrorist activity, which is carefully defined in law, it would face no legal jeopardy if another country passed an identical law. And given that no countries have retaliated in the 40 years since the Foreign Sovereignty Immunities Act, and it's well established tort exception was enacted into law, it is hard to understand why this very narrow classification should now raise alarms.    To the extent that one particular country may fear being held to account for its actions and might be threatening retaliation of some sort, there is no--that is no reason to deny justice to the victims of 9/11 and their families.    The Foreign Sovereignty Immunities Act was intended in part to ensure that the President would not be put in the position of determining which claims could be heard, and which would be protected by sovereign immunity. Although JASTA enables the executive to stay court proceedings if it is engaging in good-faith diplomatic negotiations to resolve a claim, it places the final determination of legal claims in the courts, where it belongs.    JASTA is a narrow bill that has been carefully negotiated over the last 6 years and which passed the Senate unanimously for the second time in May. It deserves swift passage in the House of Representatives, as well, and I appreciate your holding this hearing today so that we can begin this process.    Now, Ambassador Egan--Mr. Egan, rather--I am sorry--as I understood your argument, if a foreign government writes a million-dollar check to Al-Qaeda in a cafe in New York to fund a terrorist attack in the United States, the existing tort exception to the Foreign Sovereign Immunities Act provides jurisdiction to sue that government in a U.S. court.    But if that same government agent wrote the same million-dollar check in a cafe in Geneva, his government should be immune from liability for causing the very same terrorist attack. What is the rationale for that argument?</t>
   </si>
   <si>
@@ -286,24 +319,36 @@
     <t xml:space="preserve">    Mr. Franks. I thank the gentleman, and I would also now like to thank Ambassador Patterson and Mr. Egan for their time and expertise. Thank you for coming, and I would like now to invite the members of our second panel of witnesses to come forward. While you are being seated, I will go ahead and introduce our witnesses.    Our first witness on this panel will be Michael Mukasey. From 2007 until 2009, Judge Mukasey served as the Attorney General of the United States, and from 1988 to 2006, he served as district judge in the United States District Court for the Southern District of New York, becoming Chief Judge in the year 2000.    Our next witness is Richard Klingler, a partner at Sidley Austin. Mr. Klingler has served as the general counsel and legal advisor on the National Security Council, and a special assistant and Senior Associate Council to the president.    Our third witness is Paul Stephan, the Jeffries distinguished professor of law at the University of Virginia Law School. Professor Stephan has served as counselor on international law, and at the U.S. Department of State, and as a law clerk to U.S. Supreme Court Justice Louis Powell.    Our final witness is Jimmy Gurule, a professor of law at Norte Dame Law School. Professor Gurule has served as the undersecretary for Enforcement at the Department of Treasury, and assistant attorney general for the Office of Justice Programs at the Justice Department. Thank you all for being here.    Each of the witnesses' written statements will be entered into the record in its entirety. And I would now ask that each witness summarize his or her testimony in 5 minutes or less, and to help you stay within that time, there is a timing light in front of you. The light switch will switch from green to yellow, indicating that you have 1 minute to conclude your testimony.    When the light turns red, it indicates that the witness' 5 minutes have expired. And before I recognize the witnesses, it is the tradition of the Subcommittee that they be sworn, so if you will please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth, so help you God? Thank you, you may be seated. Let the record reflect that the witnesses answered in the affirmative.    And I will now recognize our first witness, Mr. Mukasey. Mr. Mukasey, welcome back, sir. And if you will please turn that microphone on before you speak.</t>
   </si>
   <si>
+    <t>Mukasey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mukasey. Thank you, Mr. Chairman, and thanks to the ranking number, and thanks in particular to the Committee for having this hearing. I do not want to simply run through the statement that I submitted to the Committee; it is in the record.    I am particularly pleased to see that the Committee is holding this hearing because, you know, the founders thought that the Senate would be the saucer in which the passions that might be unleashed in the House would be cooled. This bill, as was pointed out earlier, went through the Senate by a voice vote with no hearing. So, it is a pleasure to see the House serving as the saucer that the founders thought the Senate would be.    There are two principal problems with this bill: one is reciprocity and the other is futility. Reciprocity, I think, has been an alluded to. It is not that it would open U.S. courts--that is, it would open liability of foreign governments in U.S. courts--it is that it would open U.S. personal overseas to retaliation overseas. We are the most present country in the world. We are in more places with more people than anybody else in the world; we are the only superpower in the world right now. We want to stay that way.    I think that passing a bill like this which chips away at the concept of sovereign immunity can only hurt us; because we are the most present country in the world, it cannot help us. And there are not only hostile countries, but friendly countries, where there are people who would like to see us held to account for things that they think we ought to be held to account for.    The former Secretary of Defense, Donald Rumsfeld, was threatened with prosecution in Belgium of all places, until it was pointed out that we could pull are NATO headquarters out of Brussels, and they came to their senses. There have been prosecutions of our armed forces in Italy; there are threats to do, as it was pointed out by the State Department, some of our people in Egypt were prosecuted in those courts.    And the courts in foreign countries, where people have an interest in doing this, are much less controlled, and much less fair than our own courts. And there is no indication necessarily that this would be limited to court proceedings, that they would pass an identical statute. They are going to use this as an excuse to chip away at sovereign immunity.    From what I can think of, there are only really two countries--three countries that have anything terrible to lose here. One is the United States, the other is the U.K., and the third is Israel. And those three countries have the most to lose from chipping away at that content.    As to futility, I cannot do really any better than Judge Royce Lamberth of the D.C. District Court in a case called in Iranian terrorism cases, in which he called those cases against Iran, which is already on the foreign terrorist sponsor list, unsustainable, because in essence, sovereign assets are not subjected to attachment; and what you create is essentially a bridge to nowhere.    This is not going to help the people it is intended to help. The only people I think it can help are trial lawyers. And I do not see passing a bill in aid of that.    I would also like to respond to a couple of questions that were raised in the course of the questioning before. One actually was in the initial comments of Chairman Goodlatte who said that, you know, if a foreign government gives a bomb to a terrorist organization, and they drop it, here, why should they not be subject to suit here? That is an act of war under any standard of international law. And when FDR went in front of Congress on December 8, 1941, he did not ask Congress to strip the sovereign immunity of Japan, and open it up to lawsuits for what they did at Pearl Harbor; he asked for a declaration of war.    There are obviously steps short of war that we can take, and those were outlined by the State Department. But that is the way we respond to conduct like that. As to the question of why it is that courts should not respond, I think Judge Lambert said specifically that courts are not suited to respond to this, and the Constitution says why courts should not respond.    The Constitution places in the hands of the executive the exclusive right to conduct foreign relations. It does not give it to Article III courts. And having been in an Article III court, I know that Article III courts take on a lot of reasonabilities, but I do not think that ought to be one. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, Judge Mukasey, and I would now recognize our second witness, Mr. Klingler. And, sir, if you would turn that microphone on.</t>
   </si>
   <si>
+    <t>Klingler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Klingler. Thank you, Chairman, Ranking Member Cohen for this opportunity to appear before you. My legal practice and service in government have focused on counterterrorism and related constitutional and statutory issues.    Although I represent certain victims of the September 11th attacks, in ongoing litigations that JASTA would assist, my comments address the broader benefits and operation of this important legislation, as elaborated in my written submission. JASTA modernizes the FSIA's treatment of claims directed against state-facilitated terrorism striking the United States.    As we painfully learned, terrorist attacks here are often the tragic conclusion of a course of conduct that originates abroad. Officials and agents of various foreign states in the Middle East, South and Central Asia and elsewhere, have various dealings with terrorist organizations, with international capabilities, and deeply-held hostility to Americans.    Courts have addressed state-facilitated terrorism under the FSIA for decades, but risks of adverse state action are increasing. At the same time, our Nation's capabilities to address these risks through civil litigation have proven inadequate. The principal statute designed to deter and remedy acts of terrorism, the ATA, generally does not apply to foreign states.    Two FSIA provisions already permit certain terrorism-related claims against foreign states, but one depends on the rarely used power to designate foreign states sponsors of terrorism, and the other, the tort exception, is not designed for terrorism in particular, and has at times has been applied narrowly.    JASTA enhances the ability of U.S. courts to address acts of terrorism, but only narrowly expands existing exceptions to foreign sovereign immunity. It slightly adjusts the tort exception, which has long supported claims against state-sponsored terrorism.    JASTA supports only claims that concern a state facilitated attack on U.S. soil. Any sovereign has the ability and obligation to remedy such injuries; as the Supreme Court cases made clear, Congress is the appropriate body to discharge that obligation, by enabling legal claims.    Expanding the scope of civil litigation can ensure justice for victims, deter and redress specific attacks and enhance our Nation's counterterrorism efforts. The prospect of litigation can prompt sovereigns to disentangle their operations from terrorist networks, or to provide justice to victims. Judicial processes, or state-to-state negotiated settlements, can provide a reckoning with history, demonstrate current commitment to right conduct, and enhance relationships with the U.S. government and financial community.    JASTA also claims the FSIA's strategy of depoliticizing immunity determination by transferring responsibility from the executive to the judiciary, but it maintains important roles for the executive. JASTA does not disturb the president's exclusive role to determine which foreign states maybe subject to sue for claims of injury abroad.    For terrorist attacks here, JASTA draws upon a different presidential power, to suspend claims to effectuate state-to-state agreements that would provide comparable redress. For claims under Section 1605(b), the executive can limit suits against foreign sovereigns, but must do so while also fostering the interest of the victims. Nor does the possibility that foreign states might mirror JASTA's jurisdiction pose risk to U.S. activities.    JASTA narrowly focuses on state-facilitated acts of international terrorism, based on a narrow, established definition. Its exception does not extend to self-defense and like actions, and does not concern claims against individuals.    If the concern is instead that foreign states will use JASTA simply as an excuse to implement broader exceptions to immunity, that has little to do with JASTA. Any state seeking to do so could point to the FSIA's existing tort exception, and its provisions related to state-sponsored terrorism.    As the Supreme Court Salman Khan decision confirms, the FSIA and JASTA's amendments, therefore, have nothing to do with claims against individual officials, and provide no basis for foreign states to expand claims against American officials. The scope of sovereignty administered by the executive is unchanged with respect to those individuals.    But the relative exception to sovereignty related to claims against foreign states was created in 1976, and expanded in the 1980's and 1990's. JASTA is no sea change. Its opponent's real quarrel is with Congress' earlier policy judgements, which have produced no dire consequences over decades.    Instead, considerations of military, political and economic power, and our diplomacy, have determined, and will continue to determine, whether foreign Nations foster legal claims against the United States, just as they do for other potential foreign state actions adverse to our interests. JASTA would not change that calculus.    It does, though, empower and encourage our diplomats to use those traditional tools more effectively, to include the interests of victims of terrorism among our highest foreign policy objectives.    And if I might add just a quick observation about the State Department presentations we just heard--you know, they failed to acknowledge how existing FSIA provisions could be used as the pretext for expanded foreign state jurisdiction that the State Department fears. They failed to point to any adverse consequences arisen from decades of cases applying 1605, 85 and Section 1605A, to foreign states for facilitating terror, other than the Cuban and Iranian judgments, which frankly are a political issue, and would be dealt with on a political basis just as any others would.    The Department failed to note that the Administration's own prominent exaggerations of the changes reflected in JASTA have contributed to certain confusion and discomfort on the issue abroad.    And it failed to address, altogether, the Department's role in fostering state-to-state settlements and securing accountability for wrongful foreign state actions directed at U.S. citizens.    All these characteristics of the Department's response indicate why JASTA is needed, rather than why it is not, and explains why the Senate unanimously rejected the Administration's arguments. So JASTA confirms Congresses' initial policy judgments reflecting the FFSI, and generally seeks to ensure the Department will place a much higher priority on terrorism. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. I thank you gentlemen. And I would now recognize our third witness, Mr. Stephan. And, Mr. Stephan, if you would please turn that microphone on.</t>
   </si>
   <si>
+    <t>Stephan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stephan. Thank you, Mr. Chairman Franks, Ranking Member Mr. Cohen, and other Members of the Committee; I am very grateful for the opportunity to testify here. I have devoted my entire professional life to the foreign relations law of the United States, both in the academy and in government service. I have no clients; I represent no one in this case. I am here to try and help the Committee if I can.    I speak in opposition to the bill under consideration. I wish to make three points. First, this bill, were it adopted as law, would likely harm the United States, as well as our allies by increasing exposure to litigation abroad.    Second, this bill is not likely to achieve its stated aim, which is to whole foreign states accountable for material support for terrorism and to provide justice for their victims.    Third, this bill would privatize the national security of the United States, contrary to any sensible antiterrorism policy.    Existing law already provides a right for victims of state-sponsored terrorism to seek compensation through litigation. What this bill would do is strip the executive branch of its proper authority, provided by this Congress, to determine which states sponsor terrorism, and to give that power instead to private litigants. Such a grave matter as identifying states that are mortal threats to U.S. interests should not be left to private lawsuits. To put it bluntly, if Saudi Arabia did provide material support for the 9/11 attacks, we should be responding with cruise missiles, not with plaintiff's attorneys.    And if they did not, seeking to extract money from them for the victims of those attacks may be justified on principals of charity and compassion, but not by justice. As you already have heard today, no country benefits from the international law of sovereign immunity more than the United States.    Moreover, our worldwide interests and responsibilities mean that we do many things that foreign lawyers and judges do not like, and might consider illegal, especially when we fight terrorism. At the end of the day, increasing the exposure of our antiterrorism effort to foreign legal liability does not seem like a sound way to fight terrorist threats.    Let me make this point concrete--in response to the judgement of the International Court of Justice requiring sovereign immunity, the Italian courts proved defiant. They struck down an act of their Parliament that had implemented this judgement, declaring that the rights of persons to litigate their claims in Italian courts overrides core principals of international law.    Italy, as already has been noted today, is also a country where courts have brought criminal prosections against U.S. officials involved in apprehending suspected terrorists. These prosecutions arguably violate Italy's treaty commitments to us. Enactment of this bill will encourage the Italian courts, already inclined to disregard specific rules of international law, as well as treaties, to create even more exceptions to sovereign immunities. This would expose the United States to severe litigation risks for counterterrorism activates.    Other countries will notice and respond accordingly, not only against us, but against our allies in this struggle, including the United Kingdom and Israel.    Next, it is very unlikely that this bill will achieve its stated purpose. Most states, when confronted with lawsuits in foreign courts that they regard as violating their rights under international law, refuse to appear. When default judgements result, they refuse to pay. This bill does not affect the incentives of foreign states to do exactly this.    As a result, the lawsuits the bill would permit are unlikely to unearth evidence that would identify, much less punish, state sponsors of terrorism, or to produce acknowledgement of culpability accompied by compensation.    Finally, there is something seriously wrong with privatizing American national security policy. Although Section 5 of the Senate bill allows the judge to stay the suit at the request of the executive, it does not require this. It still leaves it to the court and the litigants to decide when to do so. If they regard the efforts of the executive to unearth evidence of state support for terrorism is unsatisfactory, this bill gives them a green light to go forward.    It is therefore completely unlike the Iranian claims litigation, where the executive could require courts to stay lawsuits. Thank you for your attention; I am happy to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. I thank the gentleman, and now recognize our fourth and final witness, Mr. Gurule. Sir, if you would turn that microphone on, too.</t>
   </si>
   <si>
+    <t>Gurule</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gurule. Chairman Franks, Ranking Member Cohen, and other distinguished Members of the Subcommittee, I would like to thank you for holding this important hearing on the Justice Against Sponsors of Terrorism Act, and inviting me to testify on the value of this legislation in combating the threat of global terrorism.    As we approach the 15 year anniversary of the 9/11 terrorist attacks that tragically took the lives of approximately 3,000 innocent civilians, it is imperative that the U.S. Government continue to strengthen the effectiveness of its counterterrorism efforts, including depriving terrorists of funding, as well as deterring and punishing their financial sponsors, including foreign states.    The enactment of JASTA is critical to achieving that objective. I would like to just briefly comment on three points--the first is the important goals advanced by JASTA; second, the fact that JASTA is narrowly drafted, narrowly tailored; and third, debunking the reciprocity arguments that are clearly, in my opinion, overstated. First, on the goals of JASTA--civil tort actions that seek large monetary damages provide an invaluable supplement to the criminal justice process and administrative blocking orders.    These civil tort actions--claims, excuse me--advance five important goals--first, private lawsuits brought by victims of terrorism can have a deterrent effect against foreign governments that support acts of terrorism. While the threat of large civil monetary judgment may have little or no deterrent effect against the terrorists themselves, the same may not be true for foreign governments that lend financial support and direction to foreign terrorist organizations.    These foreign states are likely to have substantial assets in the United State that may be attached to enforce civil terrorism judgments. We have seen that recently with the Islamic Republic of Iran, that recently has been sued by the victims of the 1983 terror attacks in Beirut, and their assets in the United States, approximately $1.7 billion in assets in the United States, have been attached to enforce the terrorism judgement against Iran.    No one can tell me that that type of action, seizing those types of assets against a foreign state, is not going to have any deterrent effect against that foreign state with respect to its future activities, with respect to supporting acts of terrorism.    Second, civil actions targeting the assets of foreign states that support terrorism can reduce the ability of international terrorists to carry out their deadly attacks. Money is the life blood of terrorists. While terrorists seldom kill for money, they always need money to kill. Depriving terrorists of funding, especially from foreign state sponsors of terrorism, is critical to preventing terrorist attacks and saving innocent lives.    Third, foreign states that sponsor terrorism, including through government charities, should be held accountable for their action. That is a very fundamental principal and proposition.    Fourth, victims of international terrorism should be compensated for their unimaginable loss, pain and suffering. And the foreign states responsible for these physical and emotional injuries should be held responsible for that compensation.    And finally, the JASTA strengthens the statutory framework of the Foreign Sovereign Immunities Act and the Antiterrorism Act, and confirms the importance of civil litigation as an important tool in combating terrorism. With respect to JASTA itself, it is a very narrowly-tailored statute, and applies extremely limited and extraordinary circumstances, and does not permit U.S. nationals to routinely sue foreign states, as some critics of the legislation have maintained.    First, it has a geographic limitation; it only applies to acts of terrorism that occur in the United States. As a subject matter limitation, it only applies to acts of international terrorism, not other acts of violence; and international terrorism is a well-defined term in the Federal U.S. Statute 18     Fourth, the term international terrorism excludes any act of war, so that would not be covered in this legislation; it would not justify the cause of action for such actions. It is limited to actions that are aided and abetted by foreign terrorist organizations--that is another limitation. There is approximate cause limitation on the statutes, so these would be acts of international terrorism that were caused by the foreign state that aided and abetted the terrorist organization.    Further, the statute provides that it does not extend to negligent acts--negligence by the foreign state--but only intentional or knowing conduct involving the state.    And with respect to aiding and abetting, the statute provides that the foreign state must have provided substantial assistance to the foreign terrorist organization.    With respect to the last point, on the overstatement regarding the reciprocity concerns, let me just simply say countries with the greatest potential for such lawsuits against the United States have authoritarian regimes that do not permit their citizens to bring civil suits against foreign governments for acts of international terrorism. In those countries, such actions are the exclusive purgative of the authoritarian government.    For example, the private civil terrorism lawsuit filed against Iran for its complicity in the 1983 terrorist attack in Beirut, Lebanon, killing over 200 American servicemen, did not result in retaliatory lawsuits be filed against the United States by private citizens in Iran.    Furthermore, the civil terrorism case did not undermine the U.S. Government's efforts to finalize the joint comprehensive plan of action with the Islamic Republic of Iran. The civil terrorism lawsuit was pending when the United States and its allies were negotiating and finalizing the terms of the multilateral agreement with Iran to limit the country's ability to develop nuclear weapons.    So it had no effect--the fact is the pending terrorism suit had no effect on that. So I think that the statement regarding retaliation is largely overstated.    And finally, in conclusion, the JASTA eliminates sovereign immunity for foreign states that intentionally, knowingly, aid and abet terrorist organizations in carrying out deadly attacks on U.S. soil; in my opinion that is good U.S. policy, and as a result, the JASTA should be enacted into law by Congress. Thank you.</t>
   </si>
   <si>
@@ -340,6 +385,9 @@
     <t xml:space="preserve">    Mr. Klingler. Very few. I represent an association of insurers. I work with co-council, who represent, you know, a much broader range. And at times, when I have, say, argued in the second circuit on this issue, it is on behalf of the broader range of plaintiffs.</t>
   </si>
   <si>
+    <t>Cohens</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohens. How many victims of 9/11 are involved?</t>
   </si>
   <si>
@@ -527,6 +575,12 @@
   </si>
   <si>
     <t>412385</t>
+  </si>
+  <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you Mr. Chairman. Judge Mukasey, I just want to go back to something you said earlier about the role that a court would actually play here. I mean, there is a terrorism exception currently, right, under the foreign sovereign immunities?</t>
@@ -935,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,7 +997,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,4205 +1019,4901 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
       <c r="H72" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>110</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>104</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>104</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>104</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>107</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>107</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>101</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>101</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>101</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>107</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>104</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>107</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>25</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>104</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>74</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G135" t="s">
+        <v>84</v>
+      </c>
       <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>101</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>74</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G137" t="s">
+        <v>84</v>
+      </c>
       <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>101</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>74</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G139" t="s">
+        <v>84</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>110</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>74</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G141" t="s">
+        <v>84</v>
+      </c>
       <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>110</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>74</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G143" t="s">
+        <v>84</v>
+      </c>
       <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>110</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>74</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>104</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>74</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G147" t="s">
+        <v>84</v>
+      </c>
       <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>101</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>74</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G149" t="s">
+        <v>84</v>
+      </c>
       <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>101</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>74</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G151" t="s">
+        <v>84</v>
+      </c>
       <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>101</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>74</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G153" t="s">
+        <v>84</v>
+      </c>
       <c r="H153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>110</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>74</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G155" t="s">
+        <v>84</v>
+      </c>
       <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I155" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>170</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G157" t="s">
+        <v>187</v>
+      </c>
       <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>101</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G159" t="s">
+        <v>187</v>
+      </c>
       <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>101</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G161" t="s">
+        <v>187</v>
+      </c>
       <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>101</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G163" t="s">
+        <v>187</v>
+      </c>
       <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>101</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G165" t="s">
+        <v>187</v>
+      </c>
       <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>101</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>170</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G167" t="s">
+        <v>187</v>
+      </c>
       <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>104</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G169" t="s">
+        <v>187</v>
+      </c>
       <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>107</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>170</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G171" t="s">
+        <v>187</v>
+      </c>
       <c r="H171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>107</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>170</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G173" t="s">
+        <v>187</v>
+      </c>
       <c r="H173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>110</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>170</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G175" t="s">
+        <v>187</v>
+      </c>
       <c r="H175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>190</v>
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20724.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20724.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Franks</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412236</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cohen</t>
   </si>
   <si>
@@ -266,6 +275,9 @@
   </si>
   <si>
     <t>400289</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Nadler</t>
@@ -989,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,7 +1009,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,4898 +1034,5244 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>101</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>104</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>108</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>107</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>110</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>101</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>101</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>104</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>108</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>114</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>104</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>108</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>104</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>108</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>104</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>108</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>104</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>108</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>104</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>108</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>107</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>111</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>107</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>101</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>105</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>105</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>105</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>101</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>105</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>101</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>105</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>101</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>105</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>101</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>105</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>101</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>105</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>28</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>107</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>111</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>28</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>104</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>28</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>107</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>111</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>25</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>28</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>104</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>108</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>28</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G135" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H135" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>101</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>105</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G137" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H137" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I137" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>101</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>105</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G139" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H139" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I139" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>110</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>114</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G141" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H141" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I141" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>110</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>114</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H143" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>110</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>114</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G145" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H145" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I145" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>104</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>108</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H147" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>101</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>105</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H149" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>101</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>105</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G151" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H151" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>101</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>105</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G153" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H153" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I153" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>110</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>114</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G155" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H155" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I155" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G157" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>101</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>105</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G159" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I159" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>101</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>105</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G161" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I161" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>101</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>105</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G163" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>101</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>105</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G165" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H165" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I165" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>101</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>105</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G167" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>104</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>108</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G169" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H169" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I169" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>107</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>111</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G171" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H171" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I171" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J171" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" t="s">
-        <v>107</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>111</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G173" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H173" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I173" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J173" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
-      </c>
-      <c r="G174" t="s">
-        <v>110</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>114</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G175" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="H175" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I175" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J175" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>208</v>
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
